--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841123.776493277</v>
+        <v>2839236.194976874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242023.204179948</v>
+        <v>9242023.204179946</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81.59119981643194</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.03250833503009</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>70.85798179845266</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>278.4190107396776</v>
       </c>
     </row>
     <row r="6">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>268.3528239515853</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>338.2584895448982</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.36189168600487</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.77945773664901</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498001</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.87916681139849</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>188.7255696453505</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>36.5974946579754</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.562624396424664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>111.9679966130646</v>
       </c>
       <c r="T22" t="n">
-        <v>78.19635708727776</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.56516399334288</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>25.82923535834098</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>251.70758760653</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>78.67531269948036</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>74.64585437511667</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571481</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329146</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>554.3221432721089</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>554.3221432721089</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>554.3221432721089</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1280.556556803303</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1280.556556803303</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>922.2908581965523</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>536.502605598308</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>125.5167008087005</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4747,19 +4747,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.440640161986</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.6003821033656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>157.6003821033656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>157.6003821033656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247853</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383435</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383435</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W13" t="n">
-        <v>385.589933001383</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>157.6003821033656</v>
+        <v>237.7764125461481</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.6003821033656</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,16 +5264,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5282,46 +5282,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.0445326839207</v>
+        <v>560.9563154684963</v>
       </c>
       <c r="C16" t="n">
-        <v>192.0445326839207</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D16" t="n">
-        <v>192.0445326839207</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>192.0445326839207</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>192.0445326839207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247854</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247854</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188986</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>420.034083581938</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X16" t="n">
-        <v>192.0445326839207</v>
+        <v>742.604780298736</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.0445326839207</v>
+        <v>742.604780298736</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,25 +5501,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861032</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1150.953990714092</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>861.8253519276507</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169048</v>
+        <v>861.8253519276507</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799442</v>
+        <v>861.8253519276507</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8359039819269</v>
+        <v>633.8358010296333</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861032</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T22" t="n">
-        <v>1308.854947839649</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U22" t="n">
-        <v>1019.726309053207</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>765.0418208473204</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>475.6246508103599</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>247.6350999123425</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.6350999123425</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>454.2145238948142</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>285.2783409669073</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>135.1617015545716</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550795</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181189</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8104215925219</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>454.2145238948142</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>909.8056634177891</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542197</v>
+        <v>583.6915747572941</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542197</v>
+        <v>470.5162571107579</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264618</v>
+        <v>376.1604829797928</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>376.1604829797928</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>285.0314007632532</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>172.6169443644441</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1712.787274970146</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1479.419501465075</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1280.495878540559</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>1046.839573784969</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652477</v>
+        <v>874.6108881683226</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030885</v>
+        <v>709.5791743061632</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,7 +6722,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6959,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,10 +7111,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014291</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.598437470156</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>891.440640161986</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441948</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,52 +7330,52 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649682</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814762</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>158.8724419039327</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2966883299252</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>94.13752431970531</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.100663089359301</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>159.0121003135237</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>73.648593382706</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,25 +10905,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>145.2351313103788</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>86.65450490992015</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709117</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.61440165197909</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>36.98408574368666</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>184.9500664004138</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.0220289556701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>85.95281337053866</v>
       </c>
       <c r="T22" t="n">
-        <v>143.3512039711115</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>108.8687986532263</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>199.8804200306962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338683</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>34.52976479204736</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.73690369017481</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.06471736386248</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807561.0437541403</v>
+        <v>807561.0437541401</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851687</v>
+        <v>630574.3128851681</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.378920787515355e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143907</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563569</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275963</v>
+        <v>37464.45686275962</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843569</v>
+        <v>-193294.543884357</v>
       </c>
       <c r="C6" t="n">
+        <v>396673.3353301877</v>
+      </c>
+      <c r="D6" t="n">
         <v>396673.3353301876</v>
       </c>
-      <c r="D6" t="n">
-        <v>396673.3353301875</v>
-      </c>
       <c r="E6" t="n">
-        <v>-26097.98945360292</v>
+        <v>-26195.44857957537</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232927</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232931</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.0470232927</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.047023293</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278307</v>
+        <v>322541.3687047277</v>
       </c>
       <c r="K6" t="n">
-        <v>456573.2069164646</v>
+        <v>456554.7131785298</v>
       </c>
       <c r="L6" t="n">
-        <v>490784.9021611685</v>
+        <v>490784.9021611681</v>
       </c>
       <c r="M6" t="n">
-        <v>366326.7937281983</v>
+        <v>366326.793728198</v>
       </c>
       <c r="N6" t="n">
-        <v>501127.8089620353</v>
+        <v>501127.8089620352</v>
       </c>
       <c r="O6" t="n">
-        <v>501127.8089620354</v>
+        <v>501127.8089620351</v>
       </c>
       <c r="P6" t="n">
-        <v>456965.2036591895</v>
+        <v>456965.2036591897</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>325.2848459252795</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>4.167450853506899</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9261882223423</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>107.818927916376</v>
       </c>
     </row>
     <row r="6">
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>86.33021766909769</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.98247917251484</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.1611066505861</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,19 +28096,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.306270953473986e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30226,16 +30226,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.13686837721616e-12</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,31 +33348,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,31 +33585,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,31 +33822,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,31 +34059,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>492.0670153019457</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>576.1943477916178</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>504.4912617279381</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>182.1505571047795</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>254.3583680453837</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>492.2066737115367</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,16 +37233,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>224.2240319706453</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>621.6037559756887</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>455.6595083608452</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,16 +37707,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
